--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.5775863728991</v>
+        <v>750.0398416170793</v>
       </c>
       <c r="AB2" t="n">
-        <v>865.5205610289102</v>
+        <v>1026.237600722967</v>
       </c>
       <c r="AC2" t="n">
-        <v>782.916493450047</v>
+        <v>928.2949244434848</v>
       </c>
       <c r="AD2" t="n">
-        <v>632577.5863728991</v>
+        <v>750039.8416170793</v>
       </c>
       <c r="AE2" t="n">
-        <v>865520.5610289101</v>
+        <v>1026237.600722966</v>
       </c>
       <c r="AF2" t="n">
         <v>6.615710715292658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.725</v>
       </c>
       <c r="AH2" t="n">
-        <v>782916.493450047</v>
+        <v>928294.9244434847</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.7010175891368</v>
+        <v>316.1865010627975</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.9154600629489</v>
+        <v>432.6203199180649</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.5698442254778</v>
+        <v>391.3316437715164</v>
       </c>
       <c r="AD3" t="n">
-        <v>247701.0175891368</v>
+        <v>316186.5010627975</v>
       </c>
       <c r="AE3" t="n">
-        <v>338915.4600629489</v>
+        <v>432620.3199180649</v>
       </c>
       <c r="AF3" t="n">
         <v>1.207914339846778e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>306569.8442254778</v>
+        <v>391331.6437715164</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.7170220331257</v>
+        <v>314.2025055067864</v>
       </c>
       <c r="AB4" t="n">
-        <v>336.2008698155094</v>
+        <v>429.9057296706239</v>
       </c>
       <c r="AC4" t="n">
-        <v>304.1143306613016</v>
+        <v>388.8761302073399</v>
       </c>
       <c r="AD4" t="n">
-        <v>245717.0220331257</v>
+        <v>314202.5055067864</v>
       </c>
       <c r="AE4" t="n">
-        <v>336200.8698155094</v>
+        <v>429905.729670624</v>
       </c>
       <c r="AF4" t="n">
         <v>1.219139539375089e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>304114.3306613016</v>
+        <v>388876.1302073399</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.3043751201618</v>
+        <v>494.3619976634305</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.2918150402483</v>
+        <v>676.407894915191</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.104666376781</v>
+        <v>611.8524747689276</v>
       </c>
       <c r="AD2" t="n">
-        <v>407304.3751201618</v>
+        <v>494361.9976634305</v>
       </c>
       <c r="AE2" t="n">
-        <v>557291.8150402482</v>
+        <v>676407.894915191</v>
       </c>
       <c r="AF2" t="n">
         <v>9.349488311973173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.36666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>504104.6663767811</v>
+        <v>611852.4747689276</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.329670410178</v>
+        <v>317.9920292344527</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.5120988206737</v>
+        <v>435.0907232168048</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.8232248280806</v>
+        <v>393.5662752466574</v>
       </c>
       <c r="AD3" t="n">
-        <v>250329.670410178</v>
+        <v>317992.0292344528</v>
       </c>
       <c r="AE3" t="n">
-        <v>342512.0988206737</v>
+        <v>435090.7232168048</v>
       </c>
       <c r="AF3" t="n">
         <v>1.29192254954505e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>309823.2248280806</v>
+        <v>393566.2752466574</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.1350000067514</v>
+        <v>370.3001702455093</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.5025303945247</v>
+        <v>506.6610294204464</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.138078370923</v>
+        <v>458.3060118757791</v>
       </c>
       <c r="AD2" t="n">
-        <v>286135.0000067514</v>
+        <v>370300.1702455092</v>
       </c>
       <c r="AE2" t="n">
-        <v>391502.5303945247</v>
+        <v>506661.0294204464</v>
       </c>
       <c r="AF2" t="n">
         <v>1.446794642916784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.56666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>354138.0783709231</v>
+        <v>458306.0118757791</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.6340829894036</v>
+        <v>335.4604785984538</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.2428065934444</v>
+        <v>458.991826290227</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.3389317185757</v>
+        <v>415.1862905881612</v>
       </c>
       <c r="AD2" t="n">
-        <v>259634.0829894036</v>
+        <v>335460.4785984539</v>
       </c>
       <c r="AE2" t="n">
-        <v>355242.8065934444</v>
+        <v>458991.8262902271</v>
       </c>
       <c r="AF2" t="n">
         <v>1.39994184694408e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.82916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>321338.9317185757</v>
+        <v>415186.2905881612</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.7147201792822</v>
+        <v>335.5411157883324</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.3531379540979</v>
+        <v>459.1021576508808</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.4387332090196</v>
+        <v>415.2860920786051</v>
       </c>
       <c r="AD3" t="n">
-        <v>259714.7201792822</v>
+        <v>335541.1157883324</v>
       </c>
       <c r="AE3" t="n">
-        <v>355353.1379540979</v>
+        <v>459102.1576508807</v>
       </c>
       <c r="AF3" t="n">
         <v>1.403927446508333e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.7875</v>
       </c>
       <c r="AH3" t="n">
-        <v>321438.7332090196</v>
+        <v>415286.0920786051</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.2497139919724</v>
+        <v>411.7279804849633</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.8115429871788</v>
+        <v>563.344387056065</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.1228623933326</v>
+        <v>509.5795894142464</v>
       </c>
       <c r="AD2" t="n">
-        <v>319249.7139919724</v>
+        <v>411727.9804849633</v>
       </c>
       <c r="AE2" t="n">
-        <v>436811.5429871788</v>
+        <v>563344.387056065</v>
       </c>
       <c r="AF2" t="n">
         <v>1.451985601946051e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.90833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>395122.8623933326</v>
+        <v>509579.5894142464</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.8904220881537</v>
+        <v>550.9797090764214</v>
       </c>
       <c r="AB2" t="n">
-        <v>621.032899733196</v>
+        <v>753.8747454675871</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.7623914078081</v>
+        <v>681.9259978300105</v>
       </c>
       <c r="AD2" t="n">
-        <v>453890.4220881537</v>
+        <v>550979.7090764213</v>
       </c>
       <c r="AE2" t="n">
-        <v>621032.899733196</v>
+        <v>753874.7454675871</v>
       </c>
       <c r="AF2" t="n">
         <v>8.55008348886989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>561762.3914078081</v>
+        <v>681925.9978300105</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.8385183196575</v>
+        <v>310.0589361236976</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.5765710960942</v>
+        <v>424.2363152393021</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.6906667670406</v>
+        <v>383.7477967322704</v>
       </c>
       <c r="AD3" t="n">
-        <v>251838.5183196575</v>
+        <v>310058.9361236976</v>
       </c>
       <c r="AE3" t="n">
-        <v>344576.5710960942</v>
+        <v>424236.3152393021</v>
       </c>
       <c r="AF3" t="n">
         <v>1.270727903600317e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>311690.6667670406</v>
+        <v>383747.7967322704</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.3631889756247</v>
+        <v>310.5836067796649</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.2944486344239</v>
+        <v>424.9541927776323</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.3400310806599</v>
+        <v>384.3971610458898</v>
       </c>
       <c r="AD4" t="n">
-        <v>252363.1889756247</v>
+        <v>310583.6067796649</v>
       </c>
       <c r="AE4" t="n">
-        <v>345294.4486344239</v>
+        <v>424954.1927776323</v>
       </c>
       <c r="AF4" t="n">
         <v>1.270808344690625e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>312340.0310806599</v>
+        <v>384397.1610458898</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.3937061915704</v>
+        <v>454.2557354339318</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.8430564932708</v>
+        <v>621.5327375693769</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.5204911016529</v>
+        <v>562.2145254224306</v>
       </c>
       <c r="AD2" t="n">
-        <v>362393.7061915704</v>
+        <v>454255.7354339318</v>
       </c>
       <c r="AE2" t="n">
-        <v>495843.0564932708</v>
+        <v>621532.7375693768</v>
       </c>
       <c r="AF2" t="n">
         <v>1.429115788149884e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>448520.4911016528</v>
+        <v>562214.5254224306</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.4010577520295</v>
+        <v>374.0071227942886</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.9172476250039</v>
+        <v>511.7330454368908</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.0816366236167</v>
+        <v>462.8939618022333</v>
       </c>
       <c r="AD2" t="n">
-        <v>297401.0577520295</v>
+        <v>374007.1227942887</v>
       </c>
       <c r="AE2" t="n">
-        <v>406917.2476250039</v>
+        <v>511733.0454368909</v>
       </c>
       <c r="AF2" t="n">
         <v>1.210148049971524e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.42916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>368081.6366236167</v>
+        <v>462893.9618022332</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.9244658338015</v>
+        <v>316.0435723189559</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.5894359260255</v>
+        <v>432.4247585051697</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.0840581816228</v>
+        <v>391.1547464653958</v>
       </c>
       <c r="AD3" t="n">
-        <v>248924.4658338015</v>
+        <v>316043.5723189559</v>
       </c>
       <c r="AE3" t="n">
-        <v>340589.4359260256</v>
+        <v>432424.7585051697</v>
       </c>
       <c r="AF3" t="n">
         <v>1.347422454721645e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.85833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>308084.0581816228</v>
+        <v>391154.7464653958</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.7234606417726</v>
+        <v>453.4817893161569</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.7672175473226</v>
+        <v>620.4737903469445</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.8792585393184</v>
+        <v>561.2566426366654</v>
       </c>
       <c r="AD2" t="n">
-        <v>366723.4606417727</v>
+        <v>453481.7893161569</v>
       </c>
       <c r="AE2" t="n">
-        <v>501767.2175473226</v>
+        <v>620473.7903469445</v>
       </c>
       <c r="AF2" t="n">
         <v>1.019255352772977e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>453879.2585393183</v>
+        <v>561256.6426366655</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.7047874922919</v>
+        <v>317.1609352998194</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.6571064445335</v>
+        <v>433.9535838301626</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.0498317243296</v>
+        <v>392.5376628470913</v>
       </c>
       <c r="AD3" t="n">
-        <v>249704.7874922919</v>
+        <v>317160.9352998194</v>
       </c>
       <c r="AE3" t="n">
-        <v>341657.1064445335</v>
+        <v>433953.5838301626</v>
       </c>
       <c r="AF3" t="n">
         <v>1.309667405432829e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>309049.8317243296</v>
+        <v>392537.6628470913</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.5541606661085</v>
+        <v>674.8780256028872</v>
       </c>
       <c r="AB2" t="n">
-        <v>776.5526413457948</v>
+        <v>923.3978881470512</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.4395471542286</v>
+        <v>835.2700896993715</v>
       </c>
       <c r="AD2" t="n">
-        <v>567554.1606661085</v>
+        <v>674878.0256028872</v>
       </c>
       <c r="AE2" t="n">
-        <v>776552.6413457948</v>
+        <v>923397.8881470512</v>
       </c>
       <c r="AF2" t="n">
         <v>7.227793236656087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.17083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>702439.5471542287</v>
+        <v>835270.0896993715</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.4312362063409</v>
+        <v>312.7369156249615</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.4416009224362</v>
+        <v>427.9004449370489</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.5229639222334</v>
+        <v>387.0622270343026</v>
       </c>
       <c r="AD3" t="n">
-        <v>244431.236206341</v>
+        <v>312736.9156249615</v>
       </c>
       <c r="AE3" t="n">
-        <v>334441.6009224362</v>
+        <v>427900.4449370489</v>
       </c>
       <c r="AF3" t="n">
         <v>1.234589380524645e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>302522.9639222334</v>
+        <v>387062.2270343025</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.4267086988951</v>
+        <v>312.7323881175157</v>
       </c>
       <c r="AB4" t="n">
-        <v>334.4354061870092</v>
+        <v>427.8942502016219</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.5173604036612</v>
+        <v>387.0566235157304</v>
       </c>
       <c r="AD4" t="n">
-        <v>244426.7086988951</v>
+        <v>312732.3881175157</v>
       </c>
       <c r="AE4" t="n">
-        <v>334435.4061870092</v>
+        <v>427894.2502016219</v>
       </c>
       <c r="AF4" t="n">
         <v>1.23758894355981e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.94583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>302517.3604036612</v>
+        <v>387056.6235157304</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.4656423024301</v>
+        <v>338.5894127972978</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.1170709651076</v>
+        <v>463.2729720999198</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.8434417361717</v>
+        <v>419.0588498504027</v>
       </c>
       <c r="AD2" t="n">
-        <v>262465.6423024301</v>
+        <v>338589.4127972978</v>
       </c>
       <c r="AE2" t="n">
-        <v>359117.0709651076</v>
+        <v>463272.9720999198</v>
       </c>
       <c r="AF2" t="n">
         <v>1.362723244830423e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.65833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>324843.4417361717</v>
+        <v>419058.8498504027</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.2778972554501</v>
+        <v>325.8487713721881</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.7554575584436</v>
+        <v>445.8406644246546</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.8980945914767</v>
+        <v>403.2902571532672</v>
       </c>
       <c r="AD3" t="n">
-        <v>259277.8972554501</v>
+        <v>325848.7713721881</v>
       </c>
       <c r="AE3" t="n">
-        <v>354755.4575584436</v>
+        <v>445840.6644246546</v>
       </c>
       <c r="AF3" t="n">
         <v>1.383529643713673e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>320898.0945914767</v>
+        <v>403290.2571532673</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.3936080619806</v>
+        <v>347.6010750111551</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.7009517082622</v>
+        <v>475.6031259073974</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.1308959662958</v>
+        <v>430.2122310839742</v>
       </c>
       <c r="AD2" t="n">
-        <v>272393.6080619806</v>
+        <v>347601.0750111551</v>
       </c>
       <c r="AE2" t="n">
-        <v>372700.9517082621</v>
+        <v>475603.1259073974</v>
       </c>
       <c r="AF2" t="n">
         <v>1.437487922962115e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>337130.8959662959</v>
+        <v>430212.2310839742</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.6409958374325</v>
+        <v>384.3947025963032</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.3502738494326</v>
+        <v>525.9457903896849</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.0915810469773</v>
+        <v>475.7502623244457</v>
       </c>
       <c r="AD2" t="n">
-        <v>300640.9958374324</v>
+        <v>384394.7025963032</v>
       </c>
       <c r="AE2" t="n">
-        <v>411350.2738494326</v>
+        <v>525945.790389685</v>
       </c>
       <c r="AF2" t="n">
         <v>1.456352651365673e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>372091.5810469773</v>
+        <v>475750.2623244456</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.4262698068466</v>
+        <v>536.9224052665221</v>
       </c>
       <c r="AB2" t="n">
-        <v>572.5092820139346</v>
+        <v>734.6409222304078</v>
       </c>
       <c r="AC2" t="n">
-        <v>517.8697996603479</v>
+        <v>664.5278236877471</v>
       </c>
       <c r="AD2" t="n">
-        <v>418426.2698068466</v>
+        <v>536922.4052665221</v>
       </c>
       <c r="AE2" t="n">
-        <v>572509.2820139346</v>
+        <v>734640.9222304078</v>
       </c>
       <c r="AF2" t="n">
         <v>1.366748724376742e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.68333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>517869.7996603479</v>
+        <v>664527.823687747</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.5365137292033</v>
+        <v>406.4326754592365</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.8863962092334</v>
+        <v>556.0991171074952</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.854431378055</v>
+        <v>503.0257978607679</v>
       </c>
       <c r="AD2" t="n">
-        <v>329536.5137292033</v>
+        <v>406432.6754592365</v>
       </c>
       <c r="AE2" t="n">
-        <v>450886.3962092334</v>
+        <v>556099.1171074952</v>
       </c>
       <c r="AF2" t="n">
         <v>1.113221274315107e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>407854.431378055</v>
+        <v>503025.7978607679</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.2299762558849</v>
+        <v>316.5730226014084</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.0074487636884</v>
+        <v>433.149175739319</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.462176460744</v>
+        <v>391.810026335444</v>
       </c>
       <c r="AD3" t="n">
-        <v>249229.9762558849</v>
+        <v>316573.0226014084</v>
       </c>
       <c r="AE3" t="n">
-        <v>341007.4487636884</v>
+        <v>433149.1757393191</v>
       </c>
       <c r="AF3" t="n">
         <v>1.327140010965039e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.65416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>308462.176460744</v>
+        <v>391810.026335444</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.5266958547276</v>
+        <v>609.5921471585061</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.5791951815864</v>
+        <v>834.070869049767</v>
       </c>
       <c r="AC2" t="n">
-        <v>621.9576018169166</v>
+        <v>754.4683159334735</v>
       </c>
       <c r="AD2" t="n">
-        <v>502526.6958547276</v>
+        <v>609592.1471585061</v>
       </c>
       <c r="AE2" t="n">
-        <v>687579.1951815864</v>
+        <v>834070.869049767</v>
       </c>
       <c r="AF2" t="n">
         <v>7.867448385025636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.81666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>621957.6018169166</v>
+        <v>754468.3159334735</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.7984441731213</v>
+        <v>311.1832625419603</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.8899839977425</v>
+        <v>425.7746682465502</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.8787293847427</v>
+        <v>385.1393314875986</v>
       </c>
       <c r="AD3" t="n">
-        <v>252798.4441731213</v>
+        <v>311183.2625419603</v>
       </c>
       <c r="AE3" t="n">
-        <v>345889.9839977425</v>
+        <v>425774.6682465501</v>
       </c>
       <c r="AF3" t="n">
         <v>1.25257387511806e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.075</v>
       </c>
       <c r="AH3" t="n">
-        <v>312878.7293847427</v>
+        <v>385139.3314875986</v>
       </c>
     </row>
   </sheetData>
@@ -11592,28 +11592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.6396587747009</v>
+        <v>705.0083872109666</v>
       </c>
       <c r="AB2" t="n">
-        <v>754.7777177596989</v>
+        <v>964.6235781569651</v>
       </c>
       <c r="AC2" t="n">
-        <v>682.7427917138929</v>
+        <v>872.5612577153584</v>
       </c>
       <c r="AD2" t="n">
-        <v>551639.6587747009</v>
+        <v>705008.3872109666</v>
       </c>
       <c r="AE2" t="n">
-        <v>754777.717759699</v>
+        <v>964623.5781569651</v>
       </c>
       <c r="AF2" t="n">
         <v>1.226176566592067e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>682742.7917138928</v>
+        <v>872561.2577153584</v>
       </c>
     </row>
   </sheetData>
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.2242218765318</v>
+        <v>345.6675995341629</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.7327018227674</v>
+        <v>472.9576594608588</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.4459316839079</v>
+        <v>427.8192442421578</v>
       </c>
       <c r="AD2" t="n">
-        <v>270224.2218765318</v>
+        <v>345667.5995341629</v>
       </c>
       <c r="AE2" t="n">
-        <v>369732.7018227674</v>
+        <v>472957.6594608588</v>
       </c>
       <c r="AF2" t="n">
         <v>1.421265383831003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>334445.9316839079</v>
+        <v>427819.2442421578</v>
       </c>
     </row>
     <row r="3">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.9810572406039</v>
+        <v>346.4244348982349</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.7682373571105</v>
+        <v>473.993194995202</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.3826371602365</v>
+        <v>428.7559497184864</v>
       </c>
       <c r="AD3" t="n">
-        <v>270981.0572406039</v>
+        <v>346424.4348982349</v>
       </c>
       <c r="AE3" t="n">
-        <v>370768.2373571105</v>
+        <v>473993.194995202</v>
       </c>
       <c r="AF3" t="n">
         <v>1.421317366764467e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>335382.6371602365</v>
+        <v>428755.9497184864</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.4903086857677</v>
+        <v>346.8957268599645</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.0967735340855</v>
+        <v>474.6380374491742</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.7752569020756</v>
+        <v>429.3392493136937</v>
       </c>
       <c r="AD2" t="n">
-        <v>270490.3086857678</v>
+        <v>346895.7268599645</v>
       </c>
       <c r="AE2" t="n">
-        <v>370096.7735340855</v>
+        <v>474638.0374491742</v>
       </c>
       <c r="AF2" t="n">
         <v>1.302578843881665e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>334775.2569020755</v>
+        <v>429339.2493136937</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.5819661305289</v>
+        <v>325.3992819666797</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.803253891012</v>
+        <v>445.225653189965</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.0367679056386</v>
+        <v>402.7339417276429</v>
       </c>
       <c r="AD3" t="n">
-        <v>258581.9661305289</v>
+        <v>325399.2819666797</v>
       </c>
       <c r="AE3" t="n">
-        <v>353803.253891012</v>
+        <v>445225.6531899651</v>
       </c>
       <c r="AF3" t="n">
         <v>1.365992831164202e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.12083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>320036.7679056386</v>
+        <v>402733.9417276429</v>
       </c>
     </row>
   </sheetData>
